--- a/DJF/UAH_PHOTSAT_SERV_129.xlsx
+++ b/DJF/UAH_PHOTSAT_SERV_129.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34629\Desktop\UNI\24-25\SEGUNDO CUATRIMESTRE\Sistema de gestion de datos a bordo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7668BE-0A49-45EE-AAA7-2F17496502A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60CC4A0-23F4-4DB7-9330-C249E2950519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Front Cover" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>STEP1</t>
   </si>
   <si>
-    <t>Check that command is executed succesfully and the received TM[20,2] reports a PID 20 value equal to 99 (0x63)</t>
-  </si>
-  <si>
     <t>FT_UAH_PHOTSAT_SERV_129_FDIR_0020</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>FT_UAH_PHOTSAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that command is executed succesfully and the received TM[3,25] </t>
   </si>
 </sst>
 </file>
@@ -786,6 +786,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -795,31 +820,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.6">
@@ -1359,7 +1359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1377,7 +1377,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="88.2" customHeight="1">
@@ -1385,7 +1385,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1395,10 +1395,10 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>26</v>
@@ -1413,14 +1413,14 @@
     <row r="6" spans="1:9" ht="39.6">
       <c r="A6" s="8"/>
       <c r="B6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1">
@@ -1437,8 +1437,8 @@
     </row>
     <row r="8" spans="1:9" ht="16.95" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="50" t="s">
-        <v>88</v>
+      <c r="B8" s="59" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="12" t="s">
@@ -1450,7 +1450,7 @@
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="51"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
         <v>33</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="51"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="8"/>
       <c r="D10" t="s">
         <v>34</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="11" spans="1:9" ht="92.4">
       <c r="A11" s="6"/>
-      <c r="B11" s="52"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="17"/>
       <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="57" t="s">
-        <v>65</v>
+      <c r="E11" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1497,23 +1497,23 @@
       <c r="E12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:9" ht="39.6">
       <c r="A13" s="8"/>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
+        <v>83</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6"/>
@@ -1526,13 +1526,13 @@
       <c r="E14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="8"/>
       <c r="B15" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="12" t="s">
@@ -1541,8 +1541,8 @@
       <c r="E15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="8"/>
@@ -1554,9 +1554,9 @@
       <c r="E16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="I16" s="61"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8"/>
@@ -1568,9 +1568,9 @@
       <c r="E17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="I17" s="61"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" ht="92.4">
       <c r="A18" s="6"/>
@@ -1579,17 +1579,17 @@
       <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="61"/>
+      <c r="E18" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>26</v>
@@ -1600,18 +1600,18 @@
       <c r="E19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="61"/>
+      <c r="I19" s="56"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8"/>
       <c r="B20" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1639,7 +1639,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="8"/>
       <c r="B23" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" t="s">
@@ -1667,8 +1667,8 @@
       <c r="D25" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="57" t="s">
-        <v>65</v>
+      <c r="E25" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="79.2">
@@ -1676,18 +1676,18 @@
       <c r="B26" s="55"/>
       <c r="C26" s="17"/>
       <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>79</v>
+        <v>67</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>26</v>
@@ -1702,13 +1702,13 @@
     <row r="28" spans="1:9">
       <c r="A28" s="8"/>
       <c r="B28" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1736,7 +1736,7 @@
     <row r="31" spans="1:9">
       <c r="A31" s="8"/>
       <c r="B31" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" t="s">
@@ -1764,8 +1764,8 @@
       <c r="D33" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="57" t="s">
-        <v>65</v>
+      <c r="E33" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="79.2">
@@ -1773,18 +1773,18 @@
       <c r="B34" s="55"/>
       <c r="C34" s="17"/>
       <c r="D34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="57" t="s">
-        <v>85</v>
+        <v>67</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>26</v>
@@ -1799,13 +1799,13 @@
     <row r="36" spans="1:5">
       <c r="A36" s="8"/>
       <c r="B36" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1823,7 +1823,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="8"/>
       <c r="B38" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="12" t="s">
@@ -1862,16 +1862,16 @@
       <c r="D41" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="57" t="s">
-        <v>65</v>
+      <c r="E41" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>26</v>
@@ -1886,13 +1886,13 @@
     <row r="43" spans="1:5">
       <c r="A43" s="8"/>
       <c r="B43" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1910,7 +1910,7 @@
     <row r="45" spans="1:5" ht="13.2" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="12" t="s">
@@ -1949,16 +1949,16 @@
       <c r="D48" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="57" t="s">
-        <v>65</v>
+      <c r="E48" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>26</v>
@@ -1980,13 +1980,13 @@
     <row r="51" spans="1:9">
       <c r="A51" s="8"/>
       <c r="B51" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2004,7 +2004,7 @@
     <row r="53" spans="1:9" ht="13.2" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="12" t="s">
@@ -2024,7 +2024,7 @@
       <c r="E54" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="61"/>
+      <c r="I54" s="56"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="8"/>
@@ -2036,7 +2036,7 @@
       <c r="E55" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I55" s="61"/>
+      <c r="I55" s="56"/>
     </row>
     <row r="56" spans="1:9" ht="92.4">
       <c r="A56" s="6"/>
@@ -2045,17 +2045,17 @@
       <c r="D56" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="I56" s="61"/>
+      <c r="E56" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="56"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>26</v>
@@ -2070,13 +2070,13 @@
     <row r="58" spans="1:9" ht="26.4">
       <c r="A58" s="8"/>
       <c r="B58" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2093,8 +2093,8 @@
     </row>
     <row r="60" spans="1:9" ht="13.2" customHeight="1">
       <c r="A60" s="8"/>
-      <c r="B60" s="59" t="s">
-        <v>89</v>
+      <c r="B60" s="57" t="s">
+        <v>88</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="12" t="s">
@@ -2106,7 +2106,7 @@
     </row>
     <row r="61" spans="1:9" ht="13.2" customHeight="1">
       <c r="A61" s="8"/>
-      <c r="B61" s="60"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="8"/>
       <c r="D61" t="s">
         <v>33</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="8"/>
-      <c r="B62" s="60"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="8"/>
       <c r="D62" t="s">
         <v>34</v>
@@ -2128,62 +2128,62 @@
     </row>
     <row r="63" spans="1:9" ht="92.4">
       <c r="A63" s="8"/>
-      <c r="B63" s="60"/>
+      <c r="B63" s="58"/>
       <c r="C63" s="8"/>
       <c r="D63" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="57" t="s">
-        <v>92</v>
+      <c r="E63" s="51" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="79.2">
       <c r="A64" s="8"/>
-      <c r="B64" s="60"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="8"/>
       <c r="D64" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="57" t="s">
-        <v>93</v>
+        <v>67</v>
+      </c>
+      <c r="E64" s="51" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="6"/>
-      <c r="B65" s="60"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="17"/>
       <c r="D65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="58" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="66" spans="1:5" ht="79.2">
-      <c r="B66" s="60"/>
+      <c r="B66" s="58"/>
       <c r="D66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="57" t="s">
-        <v>94</v>
+        <v>67</v>
+      </c>
+      <c r="E66" s="51" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="B67" s="60"/>
+      <c r="B67" s="58"/>
       <c r="D67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="52" t="s">
         <v>80</v>
-      </c>
-      <c r="E67" s="58" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="13.2" customHeight="1"/>
     <row r="69" spans="1:5">
       <c r="A69" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>26</v>
@@ -2198,13 +2198,13 @@
     <row r="70" spans="1:5">
       <c r="A70" s="8"/>
       <c r="B70" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2222,7 +2222,7 @@
     <row r="72" spans="1:5">
       <c r="A72" s="8"/>
       <c r="B72" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="12" t="s">
@@ -2257,17 +2257,17 @@
     <row r="75" spans="1:5" ht="13.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="B60:B67"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="B60:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2278,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA74F55-A139-46B3-A4EB-2748E15BAC15}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -2293,7 +2293,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="92.4">
@@ -2301,7 +2301,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2314,7 +2314,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>26</v>
@@ -2329,13 +2329,13 @@
     <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.2" customHeight="1">
@@ -2353,7 +2353,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="8"/>
       <c r="B7" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="12" t="s">
@@ -2392,8 +2392,8 @@
       <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="57" t="s">
-        <v>65</v>
+      <c r="E10" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2416,13 +2416,13 @@
     <row r="12" spans="1:5" ht="26.4">
       <c r="A12" s="8"/>
       <c r="B12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2439,8 +2439,8 @@
     </row>
     <row r="14" spans="1:5" ht="13.2" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="50" t="s">
-        <v>40</v>
+      <c r="B14" s="59" t="s">
+        <v>101</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="12" t="s">
@@ -2452,7 +2452,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8"/>
-      <c r="B15" s="51"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
         <v>33</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8"/>
-      <c r="B16" s="51"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
         <v>34</v>
@@ -2474,77 +2474,77 @@
     </row>
     <row r="17" spans="1:5" ht="92.4">
       <c r="A17" s="8"/>
-      <c r="B17" s="51"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="57" t="s">
-        <v>97</v>
+      <c r="E17" s="51" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="61"/>
+      <c r="B21" s="56"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="61"/>
+      <c r="B22" s="56"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="B23" s="61"/>
+      <c r="B23" s="56"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="61"/>
+      <c r="B24" s="56"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="B28" s="61"/>
+      <c r="B28" s="56"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="B29" s="61"/>
+      <c r="B29" s="56"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="B30" s="61"/>
+      <c r="B30" s="56"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="B31" s="61"/>
+      <c r="B31" s="56"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="61"/>
+      <c r="B36" s="56"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="61"/>
+      <c r="B37" s="56"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="61"/>
+      <c r="B38" s="56"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="61"/>
+      <c r="B39" s="56"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="61"/>
+      <c r="B43" s="56"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="61"/>
+      <c r="B44" s="56"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="61"/>
+      <c r="B45" s="56"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="61"/>
+      <c r="B46" s="56"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="61"/>
+      <c r="B47" s="56"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="61"/>
+      <c r="B48" s="56"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="61"/>
+      <c r="B52" s="56"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="61"/>
+      <c r="B53" s="56"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="61"/>
+      <c r="B54" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/DJF/UAH_PHOTSAT_SERV_129.xlsx
+++ b/DJF/UAH_PHOTSAT_SERV_129.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34629\Desktop\UNI\24-25\SEGUNDO CUATRIMESTRE\Sistema de gestion de datos a bordo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60CC4A0-23F4-4DB7-9330-C249E2950519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49E8C1D-26C2-4369-9B2C-7527BE9B2841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Front Cover" sheetId="1" r:id="rId1"/>
@@ -272,9 +272,6 @@
     <t>T0 + 9</t>
   </si>
   <si>
-    <t>Mask of Theta Yaw W Control=3             Value of Theta Yaw W Control=0    	 expected value of Theta Pitch W Control=0 prev status = Unchecked                  current status = Expected Value            OBT = 100009</t>
-  </si>
-  <si>
     <t>TM[5,4]</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
     <t>PMONID=1,PID=13,INTERVAL=1,REP=1,MASK=0x01,ExpctValue=0,EvID=0x4003</t>
   </si>
   <si>
-    <t>Mask of Theta Yaw W Control=3             Value of Theta Yaw W Control=0    	 expected value of Theta Pitch W Control=0 prev status = Unchecked                  current status = Expected Value            OBT = 100010</t>
-  </si>
-  <si>
     <t>STEP0</t>
   </si>
   <si>
@@ -342,13 +336,19 @@
   </si>
   <si>
     <t xml:space="preserve">Check that command is executed succesfully and the received TM[3,25] </t>
+  </si>
+  <si>
+    <t>Mask of Theta Yaw W Control=1             Value of Theta Yaw W Control=0    	 expected value of Theta Pitch W Control=0 prev status = Unchecked                  current status = Expected Value            OBT = 100009</t>
+  </si>
+  <si>
+    <t>Mask of Theta Yaw W Control=1             Value of Theta Yaw W Control=0    	 expected value of Theta Pitch W Control=0 prev status = Unchecked                  current status = Expected Value            OBT = 100010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -404,6 +404,13 @@
       <color rgb="FF000000"/>
       <name val="WordVisi_MSFontService"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -679,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -795,6 +802,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -804,22 +821,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.6">
@@ -1359,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1385,7 +1393,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1398,7 +1406,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>26</v>
@@ -1420,7 +1428,7 @@
         <v>63</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1">
@@ -1437,8 +1445,8 @@
     </row>
     <row r="8" spans="1:9" ht="16.95" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="59" t="s">
-        <v>87</v>
+      <c r="B8" s="53" t="s">
+        <v>85</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="12" t="s">
@@ -1450,7 +1458,7 @@
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="60"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
         <v>33</v>
@@ -1461,7 +1469,7 @@
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="60"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="8"/>
       <c r="D10" t="s">
         <v>34</v>
@@ -1472,7 +1480,7 @@
     </row>
     <row r="11" spans="1:9" ht="92.4">
       <c r="A11" s="6"/>
-      <c r="B11" s="61"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="17"/>
       <c r="D11" t="s">
         <v>36</v>
@@ -1510,7 +1518,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -1531,8 +1539,8 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="8"/>
-      <c r="B15" s="53" t="s">
-        <v>87</v>
+      <c r="B15" s="57" t="s">
+        <v>85</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="12" t="s">
@@ -1546,7 +1554,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="8"/>
-      <c r="B16" s="54"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
         <v>33</v>
@@ -1560,7 +1568,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8"/>
-      <c r="B17" s="54"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
         <v>34</v>
@@ -1574,7 +1582,7 @@
     </row>
     <row r="18" spans="1:9" ht="92.4">
       <c r="A18" s="6"/>
-      <c r="B18" s="55"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="17"/>
       <c r="D18" t="s">
         <v>36</v>
@@ -1638,8 +1646,8 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="8"/>
-      <c r="B23" s="53" t="s">
-        <v>86</v>
+      <c r="B23" s="57" t="s">
+        <v>84</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" t="s">
@@ -1651,7 +1659,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="8"/>
-      <c r="B24" s="54"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
         <v>34</v>
@@ -1662,7 +1670,7 @@
     </row>
     <row r="25" spans="1:9" ht="92.4">
       <c r="A25" s="8"/>
-      <c r="B25" s="54"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="8"/>
       <c r="D25" t="s">
         <v>36</v>
@@ -1673,13 +1681,13 @@
     </row>
     <row r="26" spans="1:9" ht="79.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="55"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="17"/>
       <c r="D26" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1735,8 +1743,8 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="8"/>
-      <c r="B31" s="53" t="s">
-        <v>86</v>
+      <c r="B31" s="57" t="s">
+        <v>84</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" t="s">
@@ -1748,7 +1756,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="8"/>
-      <c r="B32" s="54"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="8"/>
       <c r="D32" t="s">
         <v>34</v>
@@ -1757,9 +1765,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="92.4">
+    <row r="33" spans="1:9" ht="92.4">
       <c r="A33" s="8"/>
-      <c r="B33" s="54"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="8"/>
       <c r="D33" t="s">
         <v>36</v>
@@ -1767,19 +1775,20 @@
       <c r="E33" s="51" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="79.2">
+      <c r="I33" s="62"/>
+    </row>
+    <row r="34" spans="1:9" ht="79.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="55"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="17"/>
       <c r="D34" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="6" t="s">
         <v>42</v>
       </c>
@@ -1796,7 +1805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:9">
       <c r="A36" s="8"/>
       <c r="B36" s="10" t="s">
         <v>58</v>
@@ -1808,7 +1817,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:9">
       <c r="A37" s="6"/>
       <c r="C37" s="15" t="s">
         <v>29</v>
@@ -1820,10 +1829,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:9">
       <c r="A38" s="8"/>
-      <c r="B38" s="53" t="s">
-        <v>87</v>
+      <c r="B38" s="57" t="s">
+        <v>85</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="12" t="s">
@@ -1833,9 +1842,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:9">
       <c r="A39" s="8"/>
-      <c r="B39" s="54"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="8"/>
       <c r="D39" t="s">
         <v>33</v>
@@ -1844,9 +1853,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:9">
       <c r="A40" s="8"/>
-      <c r="B40" s="54"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="8"/>
       <c r="D40" t="s">
         <v>34</v>
@@ -1855,9 +1864,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="92.4">
+    <row r="41" spans="1:9" ht="92.4">
       <c r="A41" s="6"/>
-      <c r="B41" s="55"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="17"/>
       <c r="D41" t="s">
         <v>36</v>
@@ -1866,7 +1875,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:9">
       <c r="A42" s="6" t="s">
         <v>43</v>
       </c>
@@ -1883,7 +1892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:9">
       <c r="A43" s="8"/>
       <c r="B43" s="10" t="s">
         <v>59</v>
@@ -1895,7 +1904,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:9">
       <c r="A44" s="6"/>
       <c r="C44" s="15" t="s">
         <v>29</v>
@@ -1907,10 +1916,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.2" customHeight="1">
+    <row r="45" spans="1:9" ht="13.2" customHeight="1">
       <c r="A45" s="8"/>
-      <c r="B45" s="53" t="s">
-        <v>87</v>
+      <c r="B45" s="57" t="s">
+        <v>85</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="12" t="s">
@@ -1920,9 +1929,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:9">
       <c r="A46" s="8"/>
-      <c r="B46" s="54"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="8"/>
       <c r="D46" t="s">
         <v>33</v>
@@ -1931,9 +1940,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:9">
       <c r="A47" s="8"/>
-      <c r="B47" s="54"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="8"/>
       <c r="D47" t="s">
         <v>34</v>
@@ -1942,9 +1951,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="92.4">
+    <row r="48" spans="1:9" ht="92.4">
       <c r="A48" s="6"/>
-      <c r="B48" s="55"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="17"/>
       <c r="D48" t="s">
         <v>36</v>
@@ -2003,8 +2012,8 @@
     </row>
     <row r="53" spans="1:9" ht="13.2" customHeight="1">
       <c r="A53" s="8"/>
-      <c r="B53" s="53" t="s">
-        <v>87</v>
+      <c r="B53" s="57" t="s">
+        <v>85</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="12" t="s">
@@ -2016,7 +2025,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="8"/>
-      <c r="B54" s="54"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="8"/>
       <c r="D54" t="s">
         <v>33</v>
@@ -2028,7 +2037,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="8"/>
-      <c r="B55" s="54"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="8"/>
       <c r="D55" t="s">
         <v>34</v>
@@ -2040,7 +2049,7 @@
     </row>
     <row r="56" spans="1:9" ht="92.4">
       <c r="A56" s="6"/>
-      <c r="B56" s="55"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="17"/>
       <c r="D56" t="s">
         <v>36</v>
@@ -2093,8 +2102,8 @@
     </row>
     <row r="60" spans="1:9" ht="13.2" customHeight="1">
       <c r="A60" s="8"/>
-      <c r="B60" s="57" t="s">
-        <v>88</v>
+      <c r="B60" s="60" t="s">
+        <v>86</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="12" t="s">
@@ -2106,7 +2115,7 @@
     </row>
     <row r="61" spans="1:9" ht="13.2" customHeight="1">
       <c r="A61" s="8"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="61"/>
       <c r="C61" s="8"/>
       <c r="D61" t="s">
         <v>33</v>
@@ -2117,7 +2126,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="8"/>
-      <c r="B62" s="58"/>
+      <c r="B62" s="61"/>
       <c r="C62" s="8"/>
       <c r="D62" t="s">
         <v>34</v>
@@ -2128,53 +2137,53 @@
     </row>
     <row r="63" spans="1:9" ht="92.4">
       <c r="A63" s="8"/>
-      <c r="B63" s="58"/>
+      <c r="B63" s="61"/>
       <c r="C63" s="8"/>
       <c r="D63" t="s">
         <v>36</v>
       </c>
       <c r="E63" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="79.2">
       <c r="A64" s="8"/>
-      <c r="B64" s="58"/>
+      <c r="B64" s="61"/>
       <c r="C64" s="8"/>
       <c r="D64" t="s">
         <v>67</v>
       </c>
       <c r="E64" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="6"/>
-      <c r="B65" s="58"/>
+      <c r="B65" s="61"/>
       <c r="C65" s="17"/>
       <c r="D65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="52" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="66" spans="1:5" ht="79.2">
-      <c r="B66" s="58"/>
+      <c r="B66" s="61"/>
       <c r="D66" t="s">
         <v>67</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="B67" s="58"/>
+      <c r="B67" s="61"/>
       <c r="D67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="52" t="s">
         <v>79</v>
-      </c>
-      <c r="E67" s="52" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="13.2" customHeight="1"/>
@@ -2201,10 +2210,10 @@
         <v>62</v>
       </c>
       <c r="D70" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2221,8 +2230,8 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="8"/>
-      <c r="B72" s="53" t="s">
-        <v>89</v>
+      <c r="B72" s="57" t="s">
+        <v>87</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="12" t="s">
@@ -2234,7 +2243,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8"/>
-      <c r="B73" s="54"/>
+      <c r="B73" s="58"/>
       <c r="C73" s="8"/>
       <c r="D73" t="s">
         <v>33</v>
@@ -2245,7 +2254,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="6"/>
-      <c r="B74" s="55"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="17"/>
       <c r="D74" t="s">
         <v>34</v>
@@ -2257,17 +2266,17 @@
     <row r="75" spans="1:5" ht="13.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="B60:B67"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="B60:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2278,7 +2287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA74F55-A139-46B3-A4EB-2748E15BAC15}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2293,7 +2302,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="92.4">
@@ -2301,7 +2310,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2314,7 +2323,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>26</v>
@@ -2329,13 +2338,13 @@
     <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.2" customHeight="1">
@@ -2352,8 +2361,8 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8"/>
-      <c r="B7" s="53" t="s">
-        <v>87</v>
+      <c r="B7" s="57" t="s">
+        <v>85</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="12" t="s">
@@ -2365,7 +2374,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8"/>
-      <c r="B8" s="54"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
         <v>33</v>
@@ -2376,7 +2385,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.8" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="54"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
         <v>34</v>
@@ -2387,7 +2396,7 @@
     </row>
     <row r="10" spans="1:5" ht="92.4">
       <c r="A10" s="6"/>
-      <c r="B10" s="55"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="17"/>
       <c r="D10" t="s">
         <v>36</v>
@@ -2422,7 +2431,7 @@
         <v>74</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2439,8 +2448,8 @@
     </row>
     <row r="14" spans="1:5" ht="13.2" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="59" t="s">
-        <v>101</v>
+      <c r="B14" s="53" t="s">
+        <v>99</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="12" t="s">
@@ -2452,7 +2461,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8"/>
-      <c r="B15" s="60"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
         <v>33</v>
@@ -2463,7 +2472,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8"/>
-      <c r="B16" s="60"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
         <v>34</v>
@@ -2474,13 +2483,13 @@
     </row>
     <row r="17" spans="1:5" ht="92.4">
       <c r="A17" s="8"/>
-      <c r="B17" s="60"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:5">

--- a/DJF/UAH_PHOTSAT_SERV_129.xlsx
+++ b/DJF/UAH_PHOTSAT_SERV_129.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34629\Desktop\UNI\24-25\SEGUNDO CUATRIMESTRE\Sistema de gestion de datos a bordo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34629\Documents\Proyectofinal\Obdh_Proyectofinal\DJF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49E8C1D-26C2-4369-9B2C-7527BE9B2841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585EB0EB-D8FC-4A27-955E-EBED286CC4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="101">
   <si>
     <t>Doc. No.:</t>
   </si>
@@ -308,12 +308,6 @@
     <t>Param_PID=12 Param_Value=0         Param_PID=30 Param_Value=192 Param_PID=31 Param_Value=206         Param_PID=32 Param_Value=600 Param_PID=33 Param_Value=950         Param_PID=13 Param_Value=1 Param_PID=14 Param_Value=1</t>
   </si>
   <si>
-    <t>Mask of Theta Yaw W Control=1             Value of Theta Yaw W Control=1   	 expected value of Theta Yaw W Control=0 prev status = Unchecked                  current status = Expected Value            OBT = 100019</t>
-  </si>
-  <si>
-    <t>Mask of Theta Pitch W Control=1             Value of Theta Pitch W Control=1   	 expected value of Theta Pitch W Control=0 prev status = Unchecked                  current status = Expected Value            OBT = 100019</t>
-  </si>
-  <si>
     <t>Set PID Kp,Ki,Kd to force max values</t>
   </si>
   <si>
@@ -342,6 +336,9 @@
   </si>
   <si>
     <t>Mask of Theta Yaw W Control=1             Value of Theta Yaw W Control=0    	 expected value of Theta Pitch W Control=0 prev status = Unchecked                  current status = Expected Value            OBT = 100010</t>
+  </si>
+  <si>
+    <t>Mask of Theta Pitch W Control=1             Value of Theta Pitch W Control=1 expected value of Theta Pitch W Control=0                                                 prev status = Expected Value                                current status = Unexpected                                         OBT = 100019</t>
   </si>
 </sst>
 </file>
@@ -802,6 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -827,7 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.6">
@@ -1367,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1445,7 +1442,7 @@
     </row>
     <row r="8" spans="1:9" ht="16.95" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="54" t="s">
         <v>85</v>
       </c>
       <c r="C8" s="16"/>
@@ -1458,7 +1455,7 @@
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="54"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
         <v>33</v>
@@ -1469,7 +1466,7 @@
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="8"/>
       <c r="D10" t="s">
         <v>34</v>
@@ -1480,7 +1477,7 @@
     </row>
     <row r="11" spans="1:9" ht="92.4">
       <c r="A11" s="6"/>
-      <c r="B11" s="55"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="17"/>
       <c r="D11" t="s">
         <v>36</v>
@@ -1539,7 +1536,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="8"/>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="58" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="16"/>
@@ -1554,7 +1551,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="8"/>
-      <c r="B16" s="58"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
         <v>33</v>
@@ -1564,11 +1561,11 @@
       </c>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
-      <c r="I16" s="56"/>
+      <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8"/>
-      <c r="B17" s="58"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
         <v>34</v>
@@ -1578,11 +1575,11 @@
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
-      <c r="I17" s="56"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="1:9" ht="92.4">
       <c r="A18" s="6"/>
-      <c r="B18" s="59"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="17"/>
       <c r="D18" t="s">
         <v>36</v>
@@ -1590,7 +1587,7 @@
       <c r="E18" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="56"/>
+      <c r="I18" s="57"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
@@ -1608,7 +1605,7 @@
       <c r="E19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="56"/>
+      <c r="I19" s="57"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8"/>
@@ -1646,7 +1643,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="8"/>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="58" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="8"/>
@@ -1659,7 +1656,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="8"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
         <v>34</v>
@@ -1670,7 +1667,7 @@
     </row>
     <row r="25" spans="1:9" ht="92.4">
       <c r="A25" s="8"/>
-      <c r="B25" s="58"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="8"/>
       <c r="D25" t="s">
         <v>36</v>
@@ -1681,13 +1678,13 @@
     </row>
     <row r="26" spans="1:9" ht="79.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="59"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="17"/>
       <c r="D26" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1743,7 +1740,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="8"/>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="58" t="s">
         <v>84</v>
       </c>
       <c r="C31" s="8"/>
@@ -1756,7 +1753,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="8"/>
-      <c r="B32" s="58"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="8"/>
       <c r="D32" t="s">
         <v>34</v>
@@ -1767,7 +1764,7 @@
     </row>
     <row r="33" spans="1:9" ht="92.4">
       <c r="A33" s="8"/>
-      <c r="B33" s="58"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="8"/>
       <c r="D33" t="s">
         <v>36</v>
@@ -1775,17 +1772,17 @@
       <c r="E33" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="62"/>
+      <c r="I33" s="53"/>
     </row>
     <row r="34" spans="1:9" ht="79.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="59"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="17"/>
       <c r="D34" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1831,7 +1828,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="8"/>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="58" t="s">
         <v>85</v>
       </c>
       <c r="C38" s="16"/>
@@ -1844,7 +1841,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="8"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="8"/>
       <c r="D39" t="s">
         <v>33</v>
@@ -1855,7 +1852,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="8"/>
-      <c r="B40" s="58"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="8"/>
       <c r="D40" t="s">
         <v>34</v>
@@ -1866,7 +1863,7 @@
     </row>
     <row r="41" spans="1:9" ht="92.4">
       <c r="A41" s="6"/>
-      <c r="B41" s="59"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="17"/>
       <c r="D41" t="s">
         <v>36</v>
@@ -1918,7 +1915,7 @@
     </row>
     <row r="45" spans="1:9" ht="13.2" customHeight="1">
       <c r="A45" s="8"/>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="58" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="16"/>
@@ -1931,7 +1928,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="8"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="8"/>
       <c r="D46" t="s">
         <v>33</v>
@@ -1942,7 +1939,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="8"/>
-      <c r="B47" s="58"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="8"/>
       <c r="D47" t="s">
         <v>34</v>
@@ -1953,7 +1950,7 @@
     </row>
     <row r="48" spans="1:9" ht="92.4">
       <c r="A48" s="6"/>
-      <c r="B48" s="59"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="17"/>
       <c r="D48" t="s">
         <v>36</v>
@@ -2012,7 +2009,7 @@
     </row>
     <row r="53" spans="1:9" ht="13.2" customHeight="1">
       <c r="A53" s="8"/>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="58" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="16"/>
@@ -2025,7 +2022,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="8"/>
-      <c r="B54" s="58"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="8"/>
       <c r="D54" t="s">
         <v>33</v>
@@ -2033,11 +2030,11 @@
       <c r="E54" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="56"/>
+      <c r="I54" s="57"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="8"/>
-      <c r="B55" s="58"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="8"/>
       <c r="D55" t="s">
         <v>34</v>
@@ -2045,11 +2042,11 @@
       <c r="E55" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I55" s="56"/>
+      <c r="I55" s="57"/>
     </row>
     <row r="56" spans="1:9" ht="92.4">
       <c r="A56" s="6"/>
-      <c r="B56" s="59"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="17"/>
       <c r="D56" t="s">
         <v>36</v>
@@ -2057,7 +2054,7 @@
       <c r="E56" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="I56" s="56"/>
+      <c r="I56" s="57"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6" t="s">
@@ -2102,7 +2099,7 @@
     </row>
     <row r="60" spans="1:9" ht="13.2" customHeight="1">
       <c r="A60" s="8"/>
-      <c r="B60" s="60" t="s">
+      <c r="B60" s="61" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="16"/>
@@ -2115,7 +2112,7 @@
     </row>
     <row r="61" spans="1:9" ht="13.2" customHeight="1">
       <c r="A61" s="8"/>
-      <c r="B61" s="61"/>
+      <c r="B61" s="62"/>
       <c r="C61" s="8"/>
       <c r="D61" t="s">
         <v>33</v>
@@ -2126,7 +2123,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="8"/>
-      <c r="B62" s="61"/>
+      <c r="B62" s="62"/>
       <c r="C62" s="8"/>
       <c r="D62" t="s">
         <v>34</v>
@@ -2137,7 +2134,7 @@
     </row>
     <row r="63" spans="1:9" ht="92.4">
       <c r="A63" s="8"/>
-      <c r="B63" s="61"/>
+      <c r="B63" s="62"/>
       <c r="C63" s="8"/>
       <c r="D63" t="s">
         <v>36</v>
@@ -2146,20 +2143,20 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="79.2">
+    <row r="64" spans="1:9" ht="92.4">
       <c r="A64" s="8"/>
-      <c r="B64" s="61"/>
+      <c r="B64" s="62"/>
       <c r="C64" s="8"/>
       <c r="D64" t="s">
         <v>67</v>
       </c>
       <c r="E64" s="51" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="6"/>
-      <c r="B65" s="61"/>
+      <c r="B65" s="62"/>
       <c r="C65" s="17"/>
       <c r="D65" t="s">
         <v>78</v>
@@ -2168,17 +2165,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="79.2">
-      <c r="B66" s="61"/>
+    <row r="66" spans="1:5" ht="92.4">
+      <c r="B66" s="62"/>
       <c r="D66" t="s">
         <v>67</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="B67" s="61"/>
+      <c r="B67" s="62"/>
       <c r="D67" t="s">
         <v>78</v>
       </c>
@@ -2230,7 +2227,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="8"/>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="58" t="s">
         <v>87</v>
       </c>
       <c r="C72" s="16"/>
@@ -2243,7 +2240,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8"/>
-      <c r="B73" s="58"/>
+      <c r="B73" s="59"/>
       <c r="C73" s="8"/>
       <c r="D73" t="s">
         <v>33</v>
@@ -2254,7 +2251,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="6"/>
-      <c r="B74" s="59"/>
+      <c r="B74" s="60"/>
       <c r="C74" s="17"/>
       <c r="D74" t="s">
         <v>34</v>
@@ -2302,7 +2299,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="92.4">
@@ -2310,7 +2307,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2338,13 +2335,13 @@
     <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.2" customHeight="1">
@@ -2361,7 +2358,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="16"/>
@@ -2374,7 +2371,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8"/>
-      <c r="B8" s="58"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
         <v>33</v>
@@ -2385,7 +2382,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.8" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="58"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
         <v>34</v>
@@ -2396,7 +2393,7 @@
     </row>
     <row r="10" spans="1:5" ht="92.4">
       <c r="A10" s="6"/>
-      <c r="B10" s="59"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="17"/>
       <c r="D10" t="s">
         <v>36</v>
@@ -2431,7 +2428,7 @@
         <v>74</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2448,8 +2445,8 @@
     </row>
     <row r="14" spans="1:5" ht="13.2" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="53" t="s">
-        <v>99</v>
+      <c r="B14" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="12" t="s">
@@ -2461,7 +2458,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8"/>
-      <c r="B15" s="54"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
         <v>33</v>
@@ -2472,7 +2469,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8"/>
-      <c r="B16" s="54"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
         <v>34</v>
@@ -2483,77 +2480,77 @@
     </row>
     <row r="17" spans="1:5" ht="92.4">
       <c r="A17" s="8"/>
-      <c r="B17" s="54"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="56"/>
+      <c r="B21" s="57"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="56"/>
+      <c r="B22" s="57"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="B23" s="56"/>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="56"/>
+      <c r="B24" s="57"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="B28" s="56"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="B29" s="56"/>
+      <c r="B29" s="57"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="B30" s="56"/>
+      <c r="B30" s="57"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="B31" s="56"/>
+      <c r="B31" s="57"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="56"/>
+      <c r="B36" s="57"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="56"/>
+      <c r="B37" s="57"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="56"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="56"/>
+      <c r="B39" s="57"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="56"/>
+      <c r="B43" s="57"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="56"/>
+      <c r="B44" s="57"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="56"/>
+      <c r="B45" s="57"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="56"/>
+      <c r="B46" s="57"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="56"/>
+      <c r="B47" s="57"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="56"/>
+      <c r="B48" s="57"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="56"/>
+      <c r="B52" s="57"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="56"/>
+      <c r="B53" s="57"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="56"/>
+      <c r="B54" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
